--- a/tickers.xlsx
+++ b/tickers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A215"/>
+  <dimension ref="A1:A216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1938,6 +1938,13 @@
         </is>
       </c>
     </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>TESLAX</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tickers.xlsx
+++ b/tickers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RobertoPotenza\Downloads\_tk_\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RobertoPotenza\Desktop\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AF09204-EA78-48F2-827B-33BBBF9A5A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DE47EA4-8698-4BA7-BB96-D7B5C8EBB63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{85B0AFBE-C972-415A-B120-2A41C32D0B25}"/>
+    <workbookView xWindow="-28920" yWindow="3390" windowWidth="29040" windowHeight="15720" xr2:uid="{85B0AFBE-C972-415A-B120-2A41C32D0B25}"/>
   </bookViews>
   <sheets>
     <sheet name="TK" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+  <si>
+    <t>AAGIY</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+  </si>
+  <si>
+    <t>ADBE</t>
+  </si>
+  <si>
+    <t>ADI</t>
+  </si>
+  <si>
+    <t>ADSK</t>
+  </si>
+  <si>
+    <t>ADYEY</t>
+  </si>
+  <si>
+    <t>AEM</t>
+  </si>
+  <si>
+    <t>AJG</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>ALNY</t>
+  </si>
+  <si>
+    <t>AMAT</t>
+  </si>
+  <si>
+    <t>AMT</t>
+  </si>
+  <si>
+    <t>AMX</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>ANET</t>
+  </si>
+  <si>
+    <t>AON</t>
+  </si>
+  <si>
+    <t>APD</t>
+  </si>
+  <si>
+    <t>APH</t>
+  </si>
+  <si>
+    <t>APO</t>
+  </si>
+  <si>
+    <t>ARES</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>AXON</t>
+  </si>
   <si>
     <t>AZO</t>
   </si>
@@ -50,28 +125,553 @@
     <t>BABA</t>
   </si>
   <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>BAESY</t>
+  </si>
+  <si>
+    <t>BCS</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>BKNG</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>BSX</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CARR</t>
+  </si>
+  <si>
+    <t>CDNS</t>
+  </si>
+  <si>
+    <t>CEG</t>
+  </si>
+  <si>
+    <t>CHCJY</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CMG</t>
+  </si>
+  <si>
+    <t>CMPGY</t>
+  </si>
+  <si>
+    <t>CNQ</t>
+  </si>
+  <si>
+    <t>COF</t>
+  </si>
+  <si>
+    <t>COR</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>CPNG</t>
+  </si>
+  <si>
+    <t>CRH</t>
+  </si>
+  <si>
+    <t>CRWD</t>
+  </si>
+  <si>
+    <t>CSX</t>
+  </si>
+  <si>
+    <t>CVNA</t>
+  </si>
+  <si>
     <t>CVS</t>
   </si>
   <si>
     <t>DASH</t>
   </si>
   <si>
+    <t>DBSDY</t>
+  </si>
+  <si>
     <t>DELL</t>
   </si>
   <si>
+    <t>DEO</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>DLR</t>
+  </si>
+  <si>
+    <t>DSDVY</t>
+  </si>
+  <si>
+    <t>ELV</t>
+  </si>
+  <si>
+    <t>EMR</t>
+  </si>
+  <si>
+    <t>EOG</t>
+  </si>
+  <si>
+    <t>EPD</t>
+  </si>
+  <si>
+    <t>EQIX</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>ETN</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>FJTSY</t>
+  </si>
+  <si>
+    <t>FLUT</t>
+  </si>
+  <si>
     <t>GE</t>
   </si>
   <si>
     <t>GEV</t>
   </si>
   <si>
+    <t>GILD</t>
+  </si>
+  <si>
+    <t>GLW</t>
+  </si>
+  <si>
     <t>GM</t>
   </si>
   <si>
     <t>GOOG</t>
   </si>
   <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
     <t>GOP</t>
+  </si>
+  <si>
+    <t>HCA</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>HKXCY</t>
+  </si>
+  <si>
+    <t>HOOD</t>
+  </si>
+  <si>
+    <t>HWM</t>
+  </si>
+  <si>
+    <t>IBKR</t>
+  </si>
+  <si>
+    <t>IBN</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>IDCBY</t>
+  </si>
+  <si>
+    <t>IDXX</t>
+  </si>
+  <si>
+    <t>IFNNY</t>
+  </si>
+  <si>
+    <t>INFY</t>
+  </si>
+  <si>
+    <t>ING</t>
+  </si>
+  <si>
+    <t>ITOCY</t>
+  </si>
+  <si>
+    <t>JCI</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>KDDIY</t>
+  </si>
+  <si>
+    <t>KKR</t>
+  </si>
+  <si>
+    <t>KMI</t>
+  </si>
+  <si>
+    <t>LHX</t>
+  </si>
+  <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>LNG</t>
+  </si>
+  <si>
+    <t>LNSTY</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>LRCX</t>
+  </si>
+  <si>
+    <t>LYG</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MBGYY</t>
+  </si>
+  <si>
+    <t>MCK</t>
+  </si>
+  <si>
+    <t>MDLZ</t>
+  </si>
+  <si>
+    <t>MDT</t>
+  </si>
+  <si>
+    <t>MELI</t>
+  </si>
+  <si>
+    <t>MET</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>MFC</t>
+  </si>
+  <si>
+    <t>MFG</t>
+  </si>
+  <si>
+    <t>MIELY</t>
+  </si>
+  <si>
+    <t>MITSY</t>
+  </si>
+  <si>
+    <t>MKKGY</t>
+  </si>
+  <si>
+    <t>MLPX</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>MNST</t>
+  </si>
+  <si>
+    <t>MPNGY</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>MRVL</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>MSI</t>
+  </si>
+  <si>
+    <t>MSTR</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>NDAQ</t>
+  </si>
+  <si>
+    <t>NEE</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>NFLX</t>
+  </si>
+  <si>
+    <t>NGG</t>
+  </si>
+  <si>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>NPSNY</t>
+  </si>
+  <si>
+    <t>NTDOY</t>
+  </si>
+  <si>
+    <t>NTTYY</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>NWG</t>
+  </si>
+  <si>
+    <t>NXPI</t>
+  </si>
+  <si>
+    <t>ORCL</t>
+  </si>
+  <si>
+    <t>ORLY</t>
+  </si>
+  <si>
+    <t>PANW</t>
+  </si>
+  <si>
+    <t>PBR</t>
+  </si>
+  <si>
+    <t>PDD</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>PLD</t>
+  </si>
+  <si>
+    <t>PNC</t>
+  </si>
+  <si>
+    <t>PWR</t>
+  </si>
+  <si>
+    <t>QCOM</t>
+  </si>
+  <si>
+    <t>RBGLY</t>
+  </si>
+  <si>
+    <t>RBLX</t>
+  </si>
+  <si>
+    <t>RCL</t>
+  </si>
+  <si>
+    <t>REGN</t>
+  </si>
+  <si>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>ROP</t>
+  </si>
+  <si>
+    <t>RSG</t>
+  </si>
+  <si>
+    <t>RTX</t>
+  </si>
+  <si>
+    <t>RYCEY</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SHEL</t>
+  </si>
+  <si>
+    <t>SHOP</t>
+  </si>
+  <si>
+    <t>SHW</t>
+  </si>
+  <si>
+    <t>SLB</t>
+  </si>
+  <si>
+    <t>SMFG</t>
+  </si>
+  <si>
+    <t>SNOW</t>
+  </si>
+  <si>
+    <t>SNPS</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>SSREY</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>SYK</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>TCEHY</t>
+  </si>
+  <si>
+    <t>TCOM</t>
+  </si>
+  <si>
+    <t>TDG</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>TGOPY</t>
+  </si>
+  <si>
+    <t>TJX</t>
+  </si>
+  <si>
+    <t>TKOMY</t>
+  </si>
+  <si>
+    <t>TOELY</t>
+  </si>
+  <si>
+    <t>TRP</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>TSM</t>
+  </si>
+  <si>
+    <t>UBER</t>
+  </si>
+  <si>
+    <t>UBS</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>VALE</t>
+  </si>
+  <si>
+    <t>VLO</t>
+  </si>
+  <si>
+    <t>VLVLY</t>
+  </si>
+  <si>
+    <t>VRT</t>
+  </si>
+  <si>
+    <t>VRTX</t>
+  </si>
+  <si>
+    <t>VST</t>
+  </si>
+  <si>
+    <t>WDAY</t>
+  </si>
+  <si>
+    <t>WELL</t>
+  </si>
+  <si>
+    <t>WM</t>
+  </si>
+  <si>
+    <t>WMB</t>
+  </si>
+  <si>
+    <t>WMT</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>ZTS</t>
   </si>
   <si>
     <t>Ticker</t>
@@ -446,17 +1046,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52011265-506A-4CEF-A28A-31255229C4C3}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -517,6 +1117,1006 @@
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/tickers.xlsx
+++ b/tickers.xlsx
@@ -558,7 +558,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-24T14:49:03.996309</t>
+          <t>2025-09-24T14:51:49.538477</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -629,77 +629,27 @@
           <t>AAPL</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://www.investing.com/equities/apple-computer-inc-technical</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-09-24T14:49:04.896341</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>mock</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Mock data used due to network unavailability</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>234</v>
-      </c>
-      <c r="G3" t="n">
-        <v>225</v>
-      </c>
-      <c r="H3" t="n">
-        <v>215</v>
-      </c>
-      <c r="I3" t="n">
-        <v>259</v>
-      </c>
-      <c r="J3" t="n">
-        <v>269</v>
-      </c>
-      <c r="K3" t="n">
-        <v>239</v>
-      </c>
-      <c r="L3" t="n">
-        <v>238</v>
-      </c>
-      <c r="M3" t="n">
-        <v>52</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-5.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>264</v>
-      </c>
-      <c r="R3" t="n">
-        <v>242</v>
-      </c>
-      <c r="S3" t="n">
-        <v>220</v>
-      </c>
-      <c r="T3" t="n">
-        <v>4140142</v>
-      </c>
-      <c r="U3" t="n">
-        <v>62</v>
-      </c>
-      <c r="V3" t="n">
-        <v>3</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/tickers.xlsx
+++ b/tickers.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,7 +558,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-24T14:49:03.996309</t>
+          <t>2025-09-24T15:10:35.335491</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-09-24T14:49:04.896341</t>
+          <t>2025-09-24T15:10:37.042674</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -707,27 +707,77 @@
           <t>ABBV</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.investing.com/equities/abbvie-inc-technical</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-09-24T15:10:38.971697</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>mock</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Mock data used due to network unavailability</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>354</v>
+      </c>
+      <c r="G4" t="n">
+        <v>345</v>
+      </c>
+      <c r="H4" t="n">
+        <v>325</v>
+      </c>
+      <c r="I4" t="n">
+        <v>379</v>
+      </c>
+      <c r="J4" t="n">
+        <v>399</v>
+      </c>
+      <c r="K4" t="n">
+        <v>359</v>
+      </c>
+      <c r="L4" t="n">
+        <v>362</v>
+      </c>
+      <c r="M4" t="n">
+        <v>32</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>384</v>
+      </c>
+      <c r="R4" t="n">
+        <v>362</v>
+      </c>
+      <c r="S4" t="n">
+        <v>340</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2709762</v>
+      </c>
+      <c r="U4" t="n">
+        <v>32</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -735,27 +785,77 @@
           <t>ADBE</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.investing.com/equities/adobe-inc-technical</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-09-24T15:10:40.686815</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>mock</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Mock data used due to network unavailability</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>176</v>
+      </c>
+      <c r="G5" t="n">
+        <v>165</v>
+      </c>
+      <c r="H5" t="n">
+        <v>155</v>
+      </c>
+      <c r="I5" t="n">
+        <v>201</v>
+      </c>
+      <c r="J5" t="n">
+        <v>211</v>
+      </c>
+      <c r="K5" t="n">
+        <v>181</v>
+      </c>
+      <c r="L5" t="n">
+        <v>180</v>
+      </c>
+      <c r="M5" t="n">
+        <v>53</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>206</v>
+      </c>
+      <c r="R5" t="n">
+        <v>183</v>
+      </c>
+      <c r="S5" t="n">
+        <v>160</v>
+      </c>
+      <c r="T5" t="n">
+        <v>8699583</v>
+      </c>
+      <c r="U5" t="n">
+        <v>53</v>
+      </c>
+      <c r="V5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -763,27 +863,77 @@
           <t>ADI</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.investing.com/equities/analog-devices-technical</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-09-24T15:10:42.673470</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>mock</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mock data used due to network unavailability</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>274</v>
+      </c>
+      <c r="G6" t="n">
+        <v>255</v>
+      </c>
+      <c r="H6" t="n">
+        <v>240</v>
+      </c>
+      <c r="I6" t="n">
+        <v>289</v>
+      </c>
+      <c r="J6" t="n">
+        <v>304</v>
+      </c>
+      <c r="K6" t="n">
+        <v>269</v>
+      </c>
+      <c r="L6" t="n">
+        <v>270</v>
+      </c>
+      <c r="M6" t="n">
+        <v>62</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>294</v>
+      </c>
+      <c r="R6" t="n">
+        <v>272</v>
+      </c>
+      <c r="S6" t="n">
+        <v>250</v>
+      </c>
+      <c r="T6" t="n">
+        <v>10933672</v>
+      </c>
+      <c r="U6" t="n">
+        <v>42</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -791,27 +941,77 @@
           <t>ADSK</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.investing.com/equities/autodesk-inc-technical</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-09-24T15:10:43.838381</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>mock</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Mock data used due to network unavailability</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>112</v>
+      </c>
+      <c r="G7" t="n">
+        <v>95</v>
+      </c>
+      <c r="H7" t="n">
+        <v>80</v>
+      </c>
+      <c r="I7" t="n">
+        <v>127</v>
+      </c>
+      <c r="J7" t="n">
+        <v>142</v>
+      </c>
+      <c r="K7" t="n">
+        <v>107</v>
+      </c>
+      <c r="L7" t="n">
+        <v>108</v>
+      </c>
+      <c r="M7" t="n">
+        <v>41</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>132</v>
+      </c>
+      <c r="R7" t="n">
+        <v>111</v>
+      </c>
+      <c r="S7" t="n">
+        <v>90</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6281011</v>
+      </c>
+      <c r="U7" t="n">
+        <v>31</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -819,27 +1019,77 @@
           <t>ADYEY</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.investing.com/equities/adyen-nv-otc-technical</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-09-24T15:10:45.441807</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>mock</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Mock data used due to network unavailability</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>226</v>
+      </c>
+      <c r="G8" t="n">
+        <v>195</v>
+      </c>
+      <c r="H8" t="n">
+        <v>190</v>
+      </c>
+      <c r="I8" t="n">
+        <v>241</v>
+      </c>
+      <c r="J8" t="n">
+        <v>246</v>
+      </c>
+      <c r="K8" t="n">
+        <v>221</v>
+      </c>
+      <c r="L8" t="n">
+        <v>218</v>
+      </c>
+      <c r="M8" t="n">
+        <v>48</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>246</v>
+      </c>
+      <c r="R8" t="n">
+        <v>218</v>
+      </c>
+      <c r="S8" t="n">
+        <v>190</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5834618</v>
+      </c>
+      <c r="U8" t="n">
+        <v>38</v>
+      </c>
+      <c r="V8" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -847,27 +1097,77 @@
           <t>AEM</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.investing.com/equities/agnico-eagle-mines-technical</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-09-24T15:10:47.092396</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>mock</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Mock data used due to network unavailability</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>402</v>
+      </c>
+      <c r="G9" t="n">
+        <v>385</v>
+      </c>
+      <c r="H9" t="n">
+        <v>375</v>
+      </c>
+      <c r="I9" t="n">
+        <v>427</v>
+      </c>
+      <c r="J9" t="n">
+        <v>437</v>
+      </c>
+      <c r="K9" t="n">
+        <v>407</v>
+      </c>
+      <c r="L9" t="n">
+        <v>406</v>
+      </c>
+      <c r="M9" t="n">
+        <v>36</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>432</v>
+      </c>
+      <c r="R9" t="n">
+        <v>406</v>
+      </c>
+      <c r="S9" t="n">
+        <v>380</v>
+      </c>
+      <c r="T9" t="n">
+        <v>8205806</v>
+      </c>
+      <c r="U9" t="n">
+        <v>26</v>
+      </c>
+      <c r="V9" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -875,27 +1175,77 @@
           <t>AJG</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.investing.com/equities/arthur-j.-gallagher---co-technical</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-09-24T15:10:48.502007</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>mock</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Mock data used due to network unavailability</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>450</v>
+      </c>
+      <c r="G10" t="n">
+        <v>435</v>
+      </c>
+      <c r="H10" t="n">
+        <v>420</v>
+      </c>
+      <c r="I10" t="n">
+        <v>465</v>
+      </c>
+      <c r="J10" t="n">
+        <v>480</v>
+      </c>
+      <c r="K10" t="n">
+        <v>445</v>
+      </c>
+      <c r="L10" t="n">
+        <v>446</v>
+      </c>
+      <c r="M10" t="n">
+        <v>60</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>470</v>
+      </c>
+      <c r="R10" t="n">
+        <v>450</v>
+      </c>
+      <c r="S10" t="n">
+        <v>430</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4003350</v>
+      </c>
+      <c r="U10" t="n">
+        <v>20</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -903,27 +1253,77 @@
           <t>ALL</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.investing.com/equities/allstate-corp-technical</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-09-24T15:10:50.048240</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>mock</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Mock data used due to network unavailability</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>312</v>
+      </c>
+      <c r="G11" t="n">
+        <v>305</v>
+      </c>
+      <c r="H11" t="n">
+        <v>290</v>
+      </c>
+      <c r="I11" t="n">
+        <v>337</v>
+      </c>
+      <c r="J11" t="n">
+        <v>352</v>
+      </c>
+      <c r="K11" t="n">
+        <v>317</v>
+      </c>
+      <c r="L11" t="n">
+        <v>324</v>
+      </c>
+      <c r="M11" t="n">
+        <v>51</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>342</v>
+      </c>
+      <c r="R11" t="n">
+        <v>321</v>
+      </c>
+      <c r="S11" t="n">
+        <v>300</v>
+      </c>
+      <c r="T11" t="n">
+        <v>6499221</v>
+      </c>
+      <c r="U11" t="n">
+        <v>41</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">

--- a/tickers.xlsx
+++ b/tickers.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,7 +558,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-24T15:10:35.335491</t>
+          <t>2025-09-24T19:34:13.184636</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -629,77 +629,27 @@
           <t>AAPL</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://www.investing.com/equities/apple-computer-inc-technical</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-09-24T15:10:37.042674</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>mock</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Mock data used due to network unavailability</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>234</v>
-      </c>
-      <c r="G3" t="n">
-        <v>225</v>
-      </c>
-      <c r="H3" t="n">
-        <v>215</v>
-      </c>
-      <c r="I3" t="n">
-        <v>259</v>
-      </c>
-      <c r="J3" t="n">
-        <v>269</v>
-      </c>
-      <c r="K3" t="n">
-        <v>239</v>
-      </c>
-      <c r="L3" t="n">
-        <v>238</v>
-      </c>
-      <c r="M3" t="n">
-        <v>52</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-5.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>264</v>
-      </c>
-      <c r="R3" t="n">
-        <v>242</v>
-      </c>
-      <c r="S3" t="n">
-        <v>220</v>
-      </c>
-      <c r="T3" t="n">
-        <v>4140142</v>
-      </c>
-      <c r="U3" t="n">
-        <v>62</v>
-      </c>
-      <c r="V3" t="n">
-        <v>3</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -707,77 +657,27 @@
           <t>ABBV</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://www.investing.com/equities/abbvie-inc-technical</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2025-09-24T15:10:38.971697</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>mock</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Mock data used due to network unavailability</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>354</v>
-      </c>
-      <c r="G4" t="n">
-        <v>345</v>
-      </c>
-      <c r="H4" t="n">
-        <v>325</v>
-      </c>
-      <c r="I4" t="n">
-        <v>379</v>
-      </c>
-      <c r="J4" t="n">
-        <v>399</v>
-      </c>
-      <c r="K4" t="n">
-        <v>359</v>
-      </c>
-      <c r="L4" t="n">
-        <v>362</v>
-      </c>
-      <c r="M4" t="n">
-        <v>32</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="P4" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>384</v>
-      </c>
-      <c r="R4" t="n">
-        <v>362</v>
-      </c>
-      <c r="S4" t="n">
-        <v>340</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2709762</v>
-      </c>
-      <c r="U4" t="n">
-        <v>32</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -785,77 +685,27 @@
           <t>ADBE</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://www.investing.com/equities/adobe-inc-technical</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2025-09-24T15:10:40.686815</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>mock</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Mock data used due to network unavailability</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>176</v>
-      </c>
-      <c r="G5" t="n">
-        <v>165</v>
-      </c>
-      <c r="H5" t="n">
-        <v>155</v>
-      </c>
-      <c r="I5" t="n">
-        <v>201</v>
-      </c>
-      <c r="J5" t="n">
-        <v>211</v>
-      </c>
-      <c r="K5" t="n">
-        <v>181</v>
-      </c>
-      <c r="L5" t="n">
-        <v>180</v>
-      </c>
-      <c r="M5" t="n">
-        <v>53</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>206</v>
-      </c>
-      <c r="R5" t="n">
-        <v>183</v>
-      </c>
-      <c r="S5" t="n">
-        <v>160</v>
-      </c>
-      <c r="T5" t="n">
-        <v>8699583</v>
-      </c>
-      <c r="U5" t="n">
-        <v>53</v>
-      </c>
-      <c r="V5" t="n">
-        <v>4</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -863,77 +713,27 @@
           <t>ADI</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://www.investing.com/equities/analog-devices-technical</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2025-09-24T15:10:42.673470</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>mock</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Mock data used due to network unavailability</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>274</v>
-      </c>
-      <c r="G6" t="n">
-        <v>255</v>
-      </c>
-      <c r="H6" t="n">
-        <v>240</v>
-      </c>
-      <c r="I6" t="n">
-        <v>289</v>
-      </c>
-      <c r="J6" t="n">
-        <v>304</v>
-      </c>
-      <c r="K6" t="n">
-        <v>269</v>
-      </c>
-      <c r="L6" t="n">
-        <v>270</v>
-      </c>
-      <c r="M6" t="n">
-        <v>62</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>294</v>
-      </c>
-      <c r="R6" t="n">
-        <v>272</v>
-      </c>
-      <c r="S6" t="n">
-        <v>250</v>
-      </c>
-      <c r="T6" t="n">
-        <v>10933672</v>
-      </c>
-      <c r="U6" t="n">
-        <v>42</v>
-      </c>
-      <c r="V6" t="n">
-        <v>3</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -941,77 +741,27 @@
           <t>ADSK</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://www.investing.com/equities/autodesk-inc-technical</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2025-09-24T15:10:43.838381</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>mock</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Mock data used due to network unavailability</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>112</v>
-      </c>
-      <c r="G7" t="n">
-        <v>95</v>
-      </c>
-      <c r="H7" t="n">
-        <v>80</v>
-      </c>
-      <c r="I7" t="n">
-        <v>127</v>
-      </c>
-      <c r="J7" t="n">
-        <v>142</v>
-      </c>
-      <c r="K7" t="n">
-        <v>107</v>
-      </c>
-      <c r="L7" t="n">
-        <v>108</v>
-      </c>
-      <c r="M7" t="n">
-        <v>41</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>132</v>
-      </c>
-      <c r="R7" t="n">
-        <v>111</v>
-      </c>
-      <c r="S7" t="n">
-        <v>90</v>
-      </c>
-      <c r="T7" t="n">
-        <v>6281011</v>
-      </c>
-      <c r="U7" t="n">
-        <v>31</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1019,77 +769,27 @@
           <t>ADYEY</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://www.investing.com/equities/adyen-nv-otc-technical</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2025-09-24T15:10:45.441807</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>mock</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Mock data used due to network unavailability</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>226</v>
-      </c>
-      <c r="G8" t="n">
-        <v>195</v>
-      </c>
-      <c r="H8" t="n">
-        <v>190</v>
-      </c>
-      <c r="I8" t="n">
-        <v>241</v>
-      </c>
-      <c r="J8" t="n">
-        <v>246</v>
-      </c>
-      <c r="K8" t="n">
-        <v>221</v>
-      </c>
-      <c r="L8" t="n">
-        <v>218</v>
-      </c>
-      <c r="M8" t="n">
-        <v>48</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>246</v>
-      </c>
-      <c r="R8" t="n">
-        <v>218</v>
-      </c>
-      <c r="S8" t="n">
-        <v>190</v>
-      </c>
-      <c r="T8" t="n">
-        <v>5834618</v>
-      </c>
-      <c r="U8" t="n">
-        <v>38</v>
-      </c>
-      <c r="V8" t="n">
-        <v>9</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1097,77 +797,27 @@
           <t>AEM</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>https://www.investing.com/equities/agnico-eagle-mines-technical</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2025-09-24T15:10:47.092396</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>mock</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Mock data used due to network unavailability</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>402</v>
-      </c>
-      <c r="G9" t="n">
-        <v>385</v>
-      </c>
-      <c r="H9" t="n">
-        <v>375</v>
-      </c>
-      <c r="I9" t="n">
-        <v>427</v>
-      </c>
-      <c r="J9" t="n">
-        <v>437</v>
-      </c>
-      <c r="K9" t="n">
-        <v>407</v>
-      </c>
-      <c r="L9" t="n">
-        <v>406</v>
-      </c>
-      <c r="M9" t="n">
-        <v>36</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-4</v>
-      </c>
-      <c r="O9" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>432</v>
-      </c>
-      <c r="R9" t="n">
-        <v>406</v>
-      </c>
-      <c r="S9" t="n">
-        <v>380</v>
-      </c>
-      <c r="T9" t="n">
-        <v>8205806</v>
-      </c>
-      <c r="U9" t="n">
-        <v>26</v>
-      </c>
-      <c r="V9" t="n">
-        <v>7</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1175,77 +825,27 @@
           <t>AJG</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://www.investing.com/equities/arthur-j.-gallagher---co-technical</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2025-09-24T15:10:48.502007</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>mock</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Mock data used due to network unavailability</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>450</v>
-      </c>
-      <c r="G10" t="n">
-        <v>435</v>
-      </c>
-      <c r="H10" t="n">
-        <v>420</v>
-      </c>
-      <c r="I10" t="n">
-        <v>465</v>
-      </c>
-      <c r="J10" t="n">
-        <v>480</v>
-      </c>
-      <c r="K10" t="n">
-        <v>445</v>
-      </c>
-      <c r="L10" t="n">
-        <v>446</v>
-      </c>
-      <c r="M10" t="n">
-        <v>60</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>470</v>
-      </c>
-      <c r="R10" t="n">
-        <v>450</v>
-      </c>
-      <c r="S10" t="n">
-        <v>430</v>
-      </c>
-      <c r="T10" t="n">
-        <v>4003350</v>
-      </c>
-      <c r="U10" t="n">
-        <v>20</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1253,77 +853,27 @@
           <t>ALL</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>https://www.investing.com/equities/allstate-corp-technical</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2025-09-24T15:10:50.048240</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>mock</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Mock data used due to network unavailability</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>312</v>
-      </c>
-      <c r="G11" t="n">
-        <v>305</v>
-      </c>
-      <c r="H11" t="n">
-        <v>290</v>
-      </c>
-      <c r="I11" t="n">
-        <v>337</v>
-      </c>
-      <c r="J11" t="n">
-        <v>352</v>
-      </c>
-      <c r="K11" t="n">
-        <v>317</v>
-      </c>
-      <c r="L11" t="n">
-        <v>324</v>
-      </c>
-      <c r="M11" t="n">
-        <v>51</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-9</v>
-      </c>
-      <c r="O11" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>342</v>
-      </c>
-      <c r="R11" t="n">
-        <v>321</v>
-      </c>
-      <c r="S11" t="n">
-        <v>300</v>
-      </c>
-      <c r="T11" t="n">
-        <v>6499221</v>
-      </c>
-      <c r="U11" t="n">
-        <v>41</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">

--- a/tickers.xlsx
+++ b/tickers.xlsx
@@ -558,7 +558,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-24T19:34:13.184636</t>
+          <t>2025-09-24T19:41:10.911695</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Mock data used due to network unavailability</t>
+          <t>Mock data - PRODUCTION ISSUE: Network/DNS failure. Run production_debug.py for fixes.</t>
         </is>
       </c>
       <c r="F2" t="n">

--- a/tickers.xlsx
+++ b/tickers.xlsx
@@ -558,7 +558,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-24T19:41:10.911695</t>
+          <t>2025-09-25T02:13:04.753829</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Mock data - PRODUCTION ISSUE: Network/DNS failure. Run production_debug.py for fixes.</t>
+          <t>Mock data - Network connectivity issue. Check internet connection.</t>
         </is>
       </c>
       <c r="F2" t="n">

--- a/tickers.xlsx
+++ b/tickers.xlsx
@@ -553,12 +553,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.investing.com/equities/aia-group-ltd-technical</t>
+          <t>Twelve Data API - AAGIY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-25T02:13:04.753829</t>
+          <t>2025-09-25T14:54:20.824688</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -568,59 +568,59 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Mock data - Network connectivity issue. Check internet connection.</t>
+          <t>Mock data - No API key provided</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>386</v>
+        <v>447.2</v>
       </c>
       <c r="G2" t="n">
-        <v>355</v>
+        <v>434.07</v>
       </c>
       <c r="H2" t="n">
-        <v>350</v>
+        <v>419.27</v>
       </c>
       <c r="I2" t="n">
-        <v>401</v>
+        <v>462.01</v>
       </c>
       <c r="J2" t="n">
-        <v>406</v>
+        <v>475.14</v>
       </c>
       <c r="K2" t="n">
-        <v>381</v>
+        <v>449.59</v>
       </c>
       <c r="L2" t="n">
-        <v>378</v>
+        <v>464.8</v>
       </c>
       <c r="M2" t="n">
-        <v>68</v>
+        <v>26.62</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>1.8199</v>
       </c>
       <c r="O2" t="n">
-        <v>-4.5</v>
+        <v>1.0387</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>-0.2413</v>
       </c>
       <c r="Q2" t="n">
-        <v>406</v>
+        <v>478.27</v>
       </c>
       <c r="R2" t="n">
-        <v>378</v>
+        <v>448.04</v>
       </c>
       <c r="S2" t="n">
-        <v>350</v>
+        <v>396.29</v>
       </c>
       <c r="T2" t="n">
-        <v>9848278</v>
+        <v>2693979</v>
       </c>
       <c r="U2" t="n">
-        <v>48</v>
+        <v>59.67</v>
       </c>
       <c r="V2" t="n">
-        <v>9</v>
+        <v>3.2183</v>
       </c>
     </row>
     <row r="3">
